--- a/Testdata/sample.xlsx
+++ b/Testdata/sample.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Framework\Actitime\Testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815A1197-E031-4563-85A8-07BF8DF520DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="cities" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,40 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Mangalore</t>
-  </si>
-  <si>
-    <t>Mysore</t>
-  </si>
-  <si>
-    <t>chennai</t>
-  </si>
-  <si>
-    <t>Salem</t>
-  </si>
-  <si>
-    <t>Kanyakumari</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>srilanka</t>
+  </si>
+  <si>
+    <t>australia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,9 +70,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,45 +351,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1">
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>